--- a/Excel/Allservices.xlsx
+++ b/Excel/Allservices.xlsx
@@ -156,7 +156,7 @@
     <t>7720010409</t>
   </si>
   <si>
-    <t>9210291261</t>
+    <t>9210291269</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Allservices.xlsx
+++ b/Excel/Allservices.xlsx
@@ -156,7 +156,7 @@
     <t>7720010409</t>
   </si>
   <si>
-    <t>9210291282</t>
+    <t>9310291351</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
